--- a/data/CS1/case30/case30_2040.xlsx
+++ b/data/CS1/case30/case30_2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573FCD78-6D7C-4C9F-9277-E71426EE2EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62BCE04-98C5-4305-90F5-6177AE60DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25875" yWindow="3315" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7416,7 +7416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -24795,7 +24795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
